--- a/Common/item.xlsx
+++ b/Common/item.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wsyu/work/spec_work/Common/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E373A-8F59-2442-9736-107CB30C7385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1646C4-0AE0-424C-A19A-D83CBCC4FD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="13300" windowWidth="20480" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,14 +89,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ItemType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>QualityType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>品质</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,6 +158,14 @@
   </si>
   <si>
     <t>藏有大量宝石的箱子</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EItemType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQualityType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -304,6 +304,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -313,7 +376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,32 +392,68 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,7 +734,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -656,144 +755,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="21"/>
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
     </row>
     <row r="3" spans="1:25" s="3" customFormat="1" ht="64">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
+      <c r="H3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="4"/>
@@ -818,22 +917,22 @@
         <v>1001</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -845,22 +944,22 @@
         <v>1002</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -872,22 +971,22 @@
         <v>2001</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1">
         <v>999</v>
